--- a/data/trans_dic/P57GLOBAL_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P57GLOBAL_R-Provincia-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.8471672133585173</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.5609846369995437</v>
+        <v>0.5609846369995439</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.9103044943662908</v>
@@ -685,7 +685,7 @@
         <v>0.8582828770267331</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.609660030263927</v>
+        <v>0.6096600302639271</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.8622753519127595</v>
@@ -697,7 +697,7 @@
         <v>0.8526809815139141</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.5851890453621883</v>
+        <v>0.5851890453621884</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.768631452310773</v>
+        <v>0.7675704563066547</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.7421570085386308</v>
+        <v>0.7363324683460082</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.7964686698512491</v>
+        <v>0.8016584661439243</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.500444053711123</v>
+        <v>0.4999863907509625</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.872607006871334</v>
+        <v>0.870743666633361</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.8162407651375839</v>
+        <v>0.8100997391047857</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.811525322286631</v>
+        <v>0.8116242294590371</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.5588954619497513</v>
+        <v>0.5623447620598148</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.8299032527048031</v>
+        <v>0.8301534468058215</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.789943978585385</v>
+        <v>0.7933245365407267</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.8218064833180531</v>
+        <v>0.8183141580898921</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.5482381221126527</v>
+        <v>0.5502443312474152</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8554017711180765</v>
+        <v>0.8611143166316475</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.843099848546627</v>
+        <v>0.8407394543790444</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8890657265108475</v>
+        <v>0.8896931993329924</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.6161262218220405</v>
+        <v>0.6230808494019852</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.9407122294559879</v>
+        <v>0.941242477380782</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.903309454501082</v>
+        <v>0.8984791466681533</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.9002621088963472</v>
+        <v>0.8982498997585653</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.6541885868436019</v>
+        <v>0.6561538404600306</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.8875938766083769</v>
+        <v>0.8911727154635894</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.8568548675693316</v>
+        <v>0.8575591659855344</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.8813650653035953</v>
+        <v>0.8828967902719237</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.6207337686217699</v>
+        <v>0.6221570197225151</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.8338455776073666</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.6366683685744947</v>
+        <v>0.6366683685744945</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.6948189413041213</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.5825889807400869</v>
+        <v>0.5814284758111182</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.5218969695625837</v>
+        <v>0.5201356322886136</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.7968742172255552</v>
+        <v>0.7979468853382014</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.5838478973882257</v>
+        <v>0.5783067876348604</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.6573564687744499</v>
+        <v>0.6588084283571699</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.5409543115798007</v>
+        <v>0.5422807770263882</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.7933343621676365</v>
+        <v>0.7913345302169591</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.5425086924253624</v>
+        <v>0.5367393878407757</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.6286449979171694</v>
+        <v>0.6316015081559638</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.539319044935236</v>
+        <v>0.5402613994921341</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.8077026650647233</v>
+        <v>0.8081682631190764</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.5715222140259731</v>
+        <v>0.5748283207428174</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.6707025071560998</v>
+        <v>0.672033002798087</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.6056732451748934</v>
+        <v>0.6105599179450725</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8649288730898216</v>
+        <v>0.8662047196887697</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.6863833242952384</v>
+        <v>0.684031980889527</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.7374646625007321</v>
+        <v>0.7337723105076907</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.6338786775101614</v>
+        <v>0.6342846748765275</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.8583902341355364</v>
+        <v>0.8577635041359926</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.6189043598745058</v>
+        <v>0.6187834682897742</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.6903527407594018</v>
+        <v>0.6896393980138614</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.6073895651230453</v>
+        <v>0.6073482236589877</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.8549759200787076</v>
+        <v>0.8541885986101743</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.6405887754689475</v>
+        <v>0.6373825713982946</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.785857728854145</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.4912098668389401</v>
+        <v>0.49120986683894</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.5837624973003602</v>
@@ -969,7 +969,7 @@
         <v>0.8080529591757798</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.5271056143904759</v>
+        <v>0.527105614390476</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.5890026789015533</v>
+        <v>0.5846696982867085</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.6142058136225231</v>
+        <v>0.6021415608852708</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7371493733577608</v>
+        <v>0.7368256480010212</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.4367188527628763</v>
+        <v>0.4333884752790079</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.5308395087916348</v>
+        <v>0.5241880560772559</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.7129925187133165</v>
+        <v>0.7120097454779841</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.7895859402391366</v>
+        <v>0.7839700949950552</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.5094627672837242</v>
+        <v>0.5106184698887127</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.5724831224295547</v>
+        <v>0.5633041107303538</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.6773033837599094</v>
+        <v>0.68239721290787</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.7744153809744165</v>
+        <v>0.7765605394289239</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.4907623033544193</v>
+        <v>0.4896392934079218</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6960762602136175</v>
+        <v>0.6938016271582917</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.7179759065308648</v>
+        <v>0.7188181427196931</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.833429420109747</v>
+        <v>0.8252780402706837</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.5472933869103389</v>
+        <v>0.5515417298358153</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.6418805091621659</v>
+        <v>0.634450105257145</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.8061056665448418</v>
+        <v>0.809053399045935</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.8672723154734608</v>
+        <v>0.8682971729419099</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.6054243303046586</v>
+        <v>0.6079397825097581</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.6499102847176823</v>
+        <v>0.6439248519960031</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.7475692381409693</v>
+        <v>0.7515929794364539</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.8365374222033749</v>
+        <v>0.8364114258715692</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.5621023183411945</v>
+        <v>0.5622889994417202</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.5831882665463277</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.3752859427713738</v>
+        <v>0.3752859427713737</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.7185383652935671</v>
@@ -1105,7 +1105,7 @@
         <v>0.530763952345924</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.3612682991417019</v>
+        <v>0.3612682991417018</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.67616521959853</v>
+        <v>0.6756875417369028</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4892705877200019</v>
+        <v>0.4836900476042911</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.4236461687828262</v>
+        <v>0.4190726688484866</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2850228782604311</v>
+        <v>0.2811949631535356</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.6671048034235826</v>
+        <v>0.6673707857003782</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.5824283940356536</v>
+        <v>0.579331963729054</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.5338200890209831</v>
+        <v>0.5336482302183945</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.3306528691283249</v>
+        <v>0.3322989445627736</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.685792390827507</v>
+        <v>0.6852247192480094</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.5488300117593757</v>
+        <v>0.54918007741089</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.4939832192652562</v>
+        <v>0.4944234193565437</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.3205258327342867</v>
+        <v>0.3258606146457704</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.7689251595141273</v>
+        <v>0.7680280626211771</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5918073718602894</v>
+        <v>0.5980373685629192</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.5331901066165539</v>
+        <v>0.5317989136955498</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.4086271583584867</v>
+        <v>0.4180740279314379</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.7547069792070422</v>
+        <v>0.7556571271526742</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.6784807765586318</v>
+        <v>0.6800972363796531</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.6355143666842349</v>
+        <v>0.6366058951410948</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.4240747162708063</v>
+        <v>0.4231348265346453</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.7499395136276722</v>
+        <v>0.7510985103556177</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.6240024623898668</v>
+        <v>0.6258831718629565</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.5670718991693732</v>
+        <v>0.5694198907975055</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.3986722235492516</v>
+        <v>0.4026067193936932</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.9166530821860821</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.9280191283072242</v>
+        <v>0.9280191283072241</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.8384631777203818</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.7506942753637816</v>
+        <v>0.7480507845910549</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.5032357022275187</v>
+        <v>0.5100776498442745</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8658005880879902</v>
+        <v>0.8657855235767746</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.8766588760221085</v>
+        <v>0.8702977377820317</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.8109524243310273</v>
+        <v>0.8161097132094798</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.6809280433466671</v>
+        <v>0.6812499940059045</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.8717638947328746</v>
+        <v>0.8751314915444285</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.8900193009680436</v>
+        <v>0.8938440720357009</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.8015983035977573</v>
+        <v>0.7989522197688977</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.6134908642265108</v>
+        <v>0.6196434720106634</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.8801295374554353</v>
+        <v>0.8836548838658552</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.8963547772018208</v>
+        <v>0.8948501678440487</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8690982944112382</v>
+        <v>0.8606791403645255</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.648507731695895</v>
+        <v>0.6460020175117706</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9491787877900039</v>
+        <v>0.9465188393161118</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.9547924742284781</v>
+        <v>0.9543811598231708</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.9073343489408412</v>
+        <v>0.9060768174828234</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.7971653919506896</v>
+        <v>0.80039562898593</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.9494915971908529</v>
+        <v>0.9476643270351015</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.9505375865450864</v>
+        <v>0.9506006033747767</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.871921837273768</v>
+        <v>0.8745610181133359</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.7067165673073638</v>
+        <v>0.7097290839032083</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.9390869102254337</v>
+        <v>0.9385682693285754</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.944930577350703</v>
+        <v>0.9464103167362077</v>
       </c>
     </row>
     <row r="19">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.6654194211774713</v>
+        <v>0.66145077942609</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.5952713043456422</v>
+        <v>0.5938857078266445</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.7439274290882868</v>
+        <v>0.7437991394527381</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.3738617622904689</v>
+        <v>0.3749123056552577</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.682057355953098</v>
+        <v>0.6875169951959879</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.7287911019510347</v>
+        <v>0.7297499997009371</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.7695893307811158</v>
+        <v>0.7675934132642488</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.3814665824553614</v>
+        <v>0.3755834021851941</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.6859304801986326</v>
+        <v>0.6888945451612803</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.6774621308098375</v>
+        <v>0.6797413522828558</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.7727550321562227</v>
+        <v>0.7719928962042627</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.3917729649789565</v>
+        <v>0.3854585064735142</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.7709111928767048</v>
+        <v>0.7680340403909274</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.7104181767480727</v>
+        <v>0.7103015792734493</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.8460970395363098</v>
+        <v>0.8484740284818668</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.4827157991633713</v>
+        <v>0.4816372899649102</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.7851187963835249</v>
+        <v>0.7896442381097803</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.8311802838020745</v>
+        <v>0.8294259831028489</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.8628932247625745</v>
+        <v>0.8582269755403817</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.4724331200903794</v>
+        <v>0.4702707000093603</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.7656945105292678</v>
+        <v>0.7623135140692242</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.7564123903156833</v>
+        <v>0.7562432818689269</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.841373214579472</v>
+        <v>0.8401883754765889</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.4620388130325582</v>
+        <v>0.4561688864405605</v>
       </c>
     </row>
     <row r="22">
@@ -1489,7 +1489,7 @@
         <v>0.8512365616563907</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.6643747723022811</v>
+        <v>0.6643747723022814</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.4990554087757268</v>
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.493588986313435</v>
+        <v>0.4962521485863888</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.5814774648559797</v>
+        <v>0.574221137708758</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.817316470113932</v>
+        <v>0.8213278771587392</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.6198840479265028</v>
+        <v>0.6257822325084244</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.4601131623091097</v>
+        <v>0.4595273470366565</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.6795981735631025</v>
+        <v>0.6760970203665558</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.8599178030544496</v>
+        <v>0.857834694742702</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.6286072679564826</v>
+        <v>0.6314456920557679</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.4920585940380041</v>
+        <v>0.4908390002298025</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.6428522452693478</v>
+        <v>0.6399049037009191</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.8501824825032914</v>
+        <v>0.8476657557071643</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.6358539854391018</v>
+        <v>0.6385079132075955</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.5810545833998549</v>
+        <v>0.579778650070467</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.6587516704679954</v>
+        <v>0.6555352409688326</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.8796791568872903</v>
+        <v>0.8800366903992297</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.7022913645420382</v>
+        <v>0.7079537559644363</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.5382480105609003</v>
+        <v>0.5392809016217333</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.7496533575044171</v>
+        <v>0.7467345486479432</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.9073340010128262</v>
+        <v>0.9087457793143752</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.6956524123995148</v>
+        <v>0.6958576658220116</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.5471274365325508</v>
+        <v>0.5465964430011212</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.6961515270660987</v>
+        <v>0.6930584058716321</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.8876471896333223</v>
+        <v>0.8850177033284183</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.6906533447273755</v>
+        <v>0.6887564134131154</v>
       </c>
     </row>
     <row r="25">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.7998577322672614</v>
+        <v>0.8030095601189939</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.8919131519568284</v>
+        <v>0.8914870185011563</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.9109868404146853</v>
+        <v>0.9103002838997907</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.8264154499995952</v>
+        <v>0.8255485840964689</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.8589794262403575</v>
+        <v>0.8578629952008652</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.8731567629497031</v>
+        <v>0.8770747145082184</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.9329402651543571</v>
+        <v>0.932612330271524</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.8590539046123113</v>
+        <v>0.8589147531814477</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.8391526729477472</v>
+        <v>0.8401244657767074</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.88975814196545</v>
+        <v>0.8901197931435915</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.9280231295615597</v>
+        <v>0.9288177768310537</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.8503042788412914</v>
+        <v>0.8497174258377219</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.8581036733508716</v>
+        <v>0.8600549861262021</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.9307060962980663</v>
+        <v>0.9322128316454938</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.9480903349430323</v>
+        <v>0.9472239781122025</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.8835480957943617</v>
+        <v>0.883761271789526</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.9059650253859938</v>
+        <v>0.9016630623883269</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.9199554642383724</v>
+        <v>0.920101856913295</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.9641582890705619</v>
+        <v>0.9627854910643096</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.9011428418181565</v>
+        <v>0.9008377203321449</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.8762680938219471</v>
+        <v>0.8750240341090871</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.9188918338630241</v>
+        <v>0.9193851172820598</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.9516571542722683</v>
+        <v>0.9519449161832692</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.8855330395796513</v>
+        <v>0.8864966623552222</v>
       </c>
     </row>
     <row r="28">
@@ -1773,7 +1773,7 @@
         <v>0.8478768768914284</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>0.6531773864581415</v>
+        <v>0.6531773864581414</v>
       </c>
       <c r="K28" s="5" t="n">
         <v>0.7137582014626049</v>
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.6883563924830234</v>
+        <v>0.688443060098694</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.672309632892565</v>
+        <v>0.6731231967056954</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.8060737342628306</v>
+        <v>0.8050853468678122</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.6245911562373818</v>
+        <v>0.6235266547119697</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.7075089307105324</v>
+        <v>0.7083042491732718</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.7372628323337158</v>
+        <v>0.7368957849215302</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.8362497679261964</v>
+        <v>0.8348504443008191</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.6391457221643948</v>
+        <v>0.6380684252720714</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.701609028763891</v>
+        <v>0.7021312293361965</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.7098663499642206</v>
+        <v>0.7106763472629843</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.8246248718989744</v>
+        <v>0.8241038085445173</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.6364295694983511</v>
+        <v>0.6368622459084096</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.7199601744754434</v>
+        <v>0.720564399926435</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.704064408406783</v>
+        <v>0.7052084031844551</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.833496925025938</v>
+        <v>0.831693634732894</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.6606664978627604</v>
+        <v>0.6627552828603717</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.739090811669768</v>
+        <v>0.7372627195006702</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.7666616446995475</v>
+        <v>0.7668678618433383</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.8606141705675163</v>
+        <v>0.8598981195037871</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.6694325958565666</v>
+        <v>0.6668319240651485</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.7249838697388113</v>
+        <v>0.7254719673238966</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.7334748714646159</v>
+        <v>0.7313434982175663</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.8423180109910781</v>
+        <v>0.842430110436286</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.6610489075515249</v>
+        <v>0.6599590698399581</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>209201</v>
+        <v>208912</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>209774</v>
+        <v>208127</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>227691</v>
+        <v>229175</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>157451</v>
+        <v>157307</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>227609</v>
+        <v>227123</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>226395</v>
+        <v>224692</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>228346</v>
+        <v>228374</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>173925</v>
+        <v>174999</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>442348</v>
+        <v>442481</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>442382</v>
+        <v>444275</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>466174</v>
+        <v>464193</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>343097</v>
+        <v>344352</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>232817</v>
+        <v>234372</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>238306</v>
+        <v>237638</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>254163</v>
+        <v>254342</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>193847</v>
+        <v>196035</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>245373</v>
+        <v>245512</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>250545</v>
+        <v>249205</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>253315</v>
+        <v>252749</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>203580</v>
+        <v>204192</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>473097</v>
+        <v>475005</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>479853</v>
+        <v>480248</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>499959</v>
+        <v>500828</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>388466</v>
+        <v>389356</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>285608</v>
+        <v>285039</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>262281</v>
+        <v>261396</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>396344</v>
+        <v>396877</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>306492</v>
+        <v>303583</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>331274</v>
+        <v>332006</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>282686</v>
+        <v>283380</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>410677</v>
+        <v>409641</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>294789</v>
+        <v>291654</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>624991</v>
+        <v>627931</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>552868</v>
+        <v>553834</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>819843</v>
+        <v>820316</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>610575</v>
+        <v>614107</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>328805</v>
+        <v>329457</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>304383</v>
+        <v>306839</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>430192</v>
+        <v>430827</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>360318</v>
+        <v>359083</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>371645</v>
+        <v>369784</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>331246</v>
+        <v>331458</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>444353</v>
+        <v>444029</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>336301</v>
+        <v>336235</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>686340</v>
+        <v>685631</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>622649</v>
+        <v>622607</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>867827</v>
+        <v>867028</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>684361</v>
+        <v>680936</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>187801</v>
+        <v>186420</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>198400</v>
+        <v>194503</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>233425</v>
+        <v>233322</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>129843</v>
+        <v>128852</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>178050</v>
+        <v>175819</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>240888</v>
+        <v>240556</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>262826</v>
+        <v>260957</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>165477</v>
+        <v>165852</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>374552</v>
+        <v>368546</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>447612</v>
+        <v>450979</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>503002</v>
+        <v>504395</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>305313</v>
+        <v>304614</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>221941</v>
+        <v>221216</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>231920</v>
+        <v>232192</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>263913</v>
+        <v>261332</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>162718</v>
+        <v>163981</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>215294</v>
+        <v>212802</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>272347</v>
+        <v>273343</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>288685</v>
+        <v>289027</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>196645</v>
+        <v>197462</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>425209</v>
+        <v>421293</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>494049</v>
+        <v>496708</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>543352</v>
+        <v>543270</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>349695</v>
+        <v>349811</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>242521</v>
+        <v>242350</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>181375</v>
+        <v>179306</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>155876</v>
+        <v>154193</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>104580</v>
+        <v>103176</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>247800</v>
+        <v>247899</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>225382</v>
+        <v>224184</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>205146</v>
+        <v>205080</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>135447</v>
+        <v>136122</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>500716</v>
+        <v>500301</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>415834</v>
+        <v>416099</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>371592</v>
+        <v>371924</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>248906</v>
+        <v>253048</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>275791</v>
+        <v>275469</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>219385</v>
+        <v>221695</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>196181</v>
+        <v>195670</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>149933</v>
+        <v>153399</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>280340</v>
+        <v>280693</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>262551</v>
+        <v>263177</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>244227</v>
+        <v>244646</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>173716</v>
+        <v>173331</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>547551</v>
+        <v>548397</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>472790</v>
+        <v>474215</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>426572</v>
+        <v>428339</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>309591</v>
+        <v>312646</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>152622</v>
+        <v>152085</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>106486</v>
+        <v>107934</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>181952</v>
+        <v>181949</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>179654</v>
+        <v>178350</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>167602</v>
+        <v>168668</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>148918</v>
+        <v>148988</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>190556</v>
+        <v>191292</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>201877</v>
+        <v>202744</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>328640</v>
+        <v>327555</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>263986</v>
+        <v>266634</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>377348</v>
+        <v>378860</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>387004</v>
+        <v>386354</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>176695</v>
+        <v>174983</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>137226</v>
+        <v>136696</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>199475</v>
+        <v>198916</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>195666</v>
+        <v>195581</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>187522</v>
+        <v>187262</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>174338</v>
+        <v>175045</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>207547</v>
+        <v>207147</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>215604</v>
+        <v>215618</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>357471</v>
+        <v>358553</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>304102</v>
+        <v>305398</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>402626</v>
+        <v>402404</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>407977</v>
+        <v>408615</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>180203</v>
+        <v>179128</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>159999</v>
+        <v>159626</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>195744</v>
+        <v>195711</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>100839</v>
+        <v>101122</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>189710</v>
+        <v>191229</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>201804</v>
+        <v>202069</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>208694</v>
+        <v>208153</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>100456</v>
+        <v>98907</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>376545</v>
+        <v>378172</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>369681</v>
+        <v>370925</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>412882</v>
+        <v>412475</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>208840</v>
+        <v>205474</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>208771</v>
+        <v>207992</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>190948</v>
+        <v>190917</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>222628</v>
+        <v>223253</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>130199</v>
+        <v>129908</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>218376</v>
+        <v>219635</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>230155</v>
+        <v>229670</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>233996</v>
+        <v>232731</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>124411</v>
+        <v>123842</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>420332</v>
+        <v>418476</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>412763</v>
+        <v>412671</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>449545</v>
+        <v>448912</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>246296</v>
+        <v>243167</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>303571</v>
+        <v>305208</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>380243</v>
+        <v>375498</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>532833</v>
+        <v>535448</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>438057</v>
+        <v>442225</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>293202</v>
+        <v>292829</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>463443</v>
+        <v>461056</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>584741</v>
+        <v>583324</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>474846</v>
+        <v>476990</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>616188</v>
+        <v>614661</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>858763</v>
+        <v>854825</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>1132380</v>
+        <v>1129028</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>929662</v>
+        <v>933543</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>357364</v>
+        <v>356580</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>430775</v>
+        <v>428672</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>573489</v>
+        <v>573722</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>496292</v>
+        <v>500293</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>342993</v>
+        <v>343651</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>511216</v>
+        <v>509226</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>616983</v>
+        <v>617943</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>525492</v>
+        <v>525647</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>685149</v>
+        <v>684484</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>929963</v>
+        <v>925831</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>1182280</v>
+        <v>1178778</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>1009783</v>
+        <v>1007009</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>593015</v>
+        <v>595352</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>689545</v>
+        <v>689216</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>705956</v>
+        <v>705424</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>656295</v>
+        <v>655607</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>672031</v>
+        <v>671158</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>716521</v>
+        <v>719736</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>767627</v>
+        <v>767357</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>711327</v>
+        <v>711211</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>1278668</v>
+        <v>1280149</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>1418024</v>
+        <v>1418601</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>1482740</v>
+        <v>1484009</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>1379348</v>
+        <v>1378396</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>636199</v>
+        <v>637646</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>719536</v>
+        <v>720701</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>734709</v>
+        <v>734038</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>701667</v>
+        <v>701836</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>708791</v>
+        <v>705425</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>754925</v>
+        <v>755045</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>793313</v>
+        <v>792184</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>746178</v>
+        <v>745925</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>1335223</v>
+        <v>1333327</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>1464455</v>
+        <v>1465242</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>1520501</v>
+        <v>1520960</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>1436496</v>
+        <v>1438059</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>2251253</v>
+        <v>2251537</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>2276677</v>
+        <v>2279432</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>2714850</v>
+        <v>2711521</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>2173128</v>
+        <v>2169424</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>2388600</v>
+        <v>2391285</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>2597305</v>
+        <v>2596012</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>2934203</v>
+        <v>2929293</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>2340942</v>
+        <v>2336996</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>4663278</v>
+        <v>4666749</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>4904648</v>
+        <v>4910244</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>5670744</v>
+        <v>5667161</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>4545311</v>
+        <v>4548401</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>2354612</v>
+        <v>2356589</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>2384210</v>
+        <v>2388084</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>2807211</v>
+        <v>2801138</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>2298644</v>
+        <v>2305912</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>2495223</v>
+        <v>2489051</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>2700875</v>
+        <v>2701601</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>3019692</v>
+        <v>3017180</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>2451871</v>
+        <v>2442346</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>4818640</v>
+        <v>4821884</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>5067765</v>
+        <v>5053039</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>5792415</v>
+        <v>5793186</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>4721139</v>
+        <v>4713356</v>
       </c>
     </row>
     <row r="40">
